--- a/model/Scade/WorkArea/Group4/Amsterdan Utrecht scenario.xlsx
+++ b/model/Scade/WorkArea/Group4/Amsterdan Utrecht scenario.xlsx
@@ -8485,7 +8485,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
